--- a/HOAc work/Ni(110)/IRAS chamber/HOAc results on Ni and SnNi in IRAS chamber/TPD of HOAc on SnNi/TPD SnNi HOAc/TPD Plot HOAc_2e-9_30s_SnNi .xlsx
+++ b/HOAc work/Ni(110)/IRAS chamber/HOAc results on Ni and SnNi in IRAS chamber/TPD of HOAc on SnNi/TPD SnNi HOAc/TPD Plot HOAc_2e-9_30s_SnNi .xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\manolis\Desktop\PycharmProjects\IRAS\IRAS\plotTPD_data programs\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\manolis\Desktop\PycharmProjects\IRAS\IRAS\HOAc work\Ni(110)\IRAS chamber\HOAc results on Ni and SnNi in IRAS chamber\TPD of HOAc on SnNi\TPD SnNi HOAc\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -195,9 +195,9 @@
             </c:strRef>
           </c:tx>
           <c:spPr>
-            <a:ln w="22225" cap="rnd">
+            <a:ln w="19050" cap="rnd">
               <a:solidFill>
-                <a:schemeClr val="accent1"/>
+                <a:schemeClr val="tx1"/>
               </a:solidFill>
               <a:round/>
             </a:ln>
@@ -1623,9 +1623,9 @@
             </c:strRef>
           </c:tx>
           <c:spPr>
-            <a:ln w="22225" cap="rnd">
+            <a:ln w="19050" cap="rnd">
               <a:solidFill>
-                <a:schemeClr val="accent3"/>
+                <a:schemeClr val="tx1"/>
               </a:solidFill>
               <a:round/>
             </a:ln>
@@ -3051,9 +3051,9 @@
             </c:strRef>
           </c:tx>
           <c:spPr>
-            <a:ln w="22225" cap="rnd">
+            <a:ln w="19050" cap="rnd">
               <a:solidFill>
-                <a:schemeClr val="accent4"/>
+                <a:schemeClr val="tx1"/>
               </a:solidFill>
               <a:round/>
             </a:ln>
@@ -4479,7 +4479,7 @@
             </c:strRef>
           </c:tx>
           <c:spPr>
-            <a:ln w="22225" cap="rnd">
+            <a:ln w="19050" cap="rnd">
               <a:solidFill>
                 <a:schemeClr val="tx1"/>
               </a:solidFill>
@@ -6333,7 +6333,7 @@
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:defRPr sz="1600" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                     <a:solidFill>
                       <a:sysClr val="windowText" lastClr="000000"/>
                     </a:solidFill>
@@ -6343,7 +6343,7 @@
                   </a:defRPr>
                 </a:pPr>
                 <a:r>
-                  <a:rPr lang="en-US" sz="1400">
+                  <a:rPr lang="en-US" sz="1600">
                     <a:solidFill>
                       <a:sysClr val="windowText" lastClr="000000"/>
                     </a:solidFill>
@@ -6353,7 +6353,7 @@
                   <a:t>Temperature</a:t>
                 </a:r>
                 <a:r>
-                  <a:rPr lang="en-US" sz="1400" baseline="0">
+                  <a:rPr lang="en-US" sz="1600" baseline="0">
                     <a:solidFill>
                       <a:sysClr val="windowText" lastClr="000000"/>
                     </a:solidFill>
@@ -6362,7 +6362,7 @@
                   </a:rPr>
                   <a:t> (K)</a:t>
                 </a:r>
-                <a:endParaRPr lang="en-US" sz="1400">
+                <a:endParaRPr lang="en-US" sz="1600">
                   <a:solidFill>
                     <a:sysClr val="windowText" lastClr="000000"/>
                   </a:solidFill>
@@ -6385,7 +6385,7 @@
             <a:lstStyle/>
             <a:p>
               <a:pPr>
-                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:defRPr sz="1600" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                   <a:solidFill>
                     <a:sysClr val="windowText" lastClr="000000"/>
                   </a:solidFill>
@@ -6400,11 +6400,11 @@
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
-        <c:minorTickMark val="none"/>
+        <c:minorTickMark val="out"/>
         <c:tickLblPos val="nextTo"/>
         <c:spPr>
           <a:noFill/>
-          <a:ln w="15875" cap="flat" cmpd="sng" algn="ctr">
+          <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
             <a:solidFill>
               <a:schemeClr val="tx1"/>
             </a:solidFill>
@@ -6417,7 +6417,7 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
                   <a:sysClr val="windowText" lastClr="000000"/>
                 </a:solidFill>
@@ -6432,6 +6432,7 @@
         <c:crossAx val="1165034351"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
+        <c:minorUnit val="50"/>
       </c:valAx>
       <c:valAx>
         <c:axId val="1165034351"/>
@@ -6490,7 +6491,7 @@
                     <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
                     <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
                   </a:rPr>
-                  <a:t>QMS signal </a:t>
+                  <a:t>QMS signal (a.u.) </a:t>
                 </a:r>
                 <a:r>
                   <a:rPr lang="en-US" sz="1600" b="0" i="0" baseline="0">
@@ -6498,6 +6499,8 @@
                       <a:sysClr val="windowText" lastClr="000000"/>
                     </a:solidFill>
                     <a:effectLst/>
+                    <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+                    <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
                   </a:rPr>
                   <a:t>x 10</a:t>
                 </a:r>
@@ -6507,6 +6510,8 @@
                       <a:sysClr val="windowText" lastClr="000000"/>
                     </a:solidFill>
                     <a:effectLst/>
+                    <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+                    <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
                   </a:rPr>
                   <a:t>4</a:t>
                 </a:r>
@@ -6515,6 +6520,8 @@
                     <a:sysClr val="windowText" lastClr="000000"/>
                   </a:solidFill>
                   <a:effectLst/>
+                  <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+                  <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
                 </a:endParaRPr>
               </a:p>
             </c:rich>
@@ -6568,7 +6575,7 @@
         <c:tickLblPos val="nextTo"/>
         <c:spPr>
           <a:noFill/>
-          <a:ln w="15875" cap="flat" cmpd="sng" algn="ctr">
+          <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
             <a:solidFill>
               <a:schemeClr val="tx1"/>
             </a:solidFill>
@@ -6581,13 +6588,13 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="1100" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
                   <a:sysClr val="windowText" lastClr="000000"/>
                 </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
+                <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
                 <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
+                <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
               </a:defRPr>
             </a:pPr>
             <a:endParaRPr lang="en-US"/>
@@ -6602,8 +6609,10 @@
       </c:valAx>
       <c:spPr>
         <a:noFill/>
-        <a:ln>
-          <a:noFill/>
+        <a:ln w="19050">
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
         </a:ln>
         <a:effectLst/>
       </c:spPr>
@@ -7214,10 +7223,10 @@
       <xdr:rowOff>33250</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>157944</xdr:colOff>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>324198</xdr:colOff>
       <xdr:row>26</xdr:row>
-      <xdr:rowOff>49875</xdr:rowOff>
+      <xdr:rowOff>16624</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -7228,7 +7237,9 @@
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
-        <xdr:cNvGraphicFramePr/>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks noChangeAspect="1"/>
+        </xdr:cNvGraphicFramePr>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
         <a:off x="0" y="0"/>
@@ -7249,12 +7260,12 @@
 <c:userShapes xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart">
   <cdr:relSizeAnchor xmlns:cdr="http://schemas.openxmlformats.org/drawingml/2006/chartDrawing">
     <cdr:from>
-      <cdr:x>0.32246</cdr:x>
-      <cdr:y>0.70598</cdr:y>
+      <cdr:x>0.73083</cdr:x>
+      <cdr:y>0.6951</cdr:y>
     </cdr:from>
     <cdr:to>
-      <cdr:x>0.37659</cdr:x>
-      <cdr:y>0.77998</cdr:y>
+      <cdr:x>0.78496</cdr:x>
+      <cdr:y>0.7691</cdr:y>
     </cdr:to>
     <cdr:sp macro="" textlink="">
       <cdr:nvSpPr>
@@ -7269,8 +7280,8 @@
       </cdr:nvSpPr>
       <cdr:spPr>
         <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-          <a:off x="2519680" y="3251200"/>
-          <a:ext cx="423012" cy="340798"/>
+          <a:off x="5346135" y="3177984"/>
+          <a:ext cx="395972" cy="338329"/>
         </a:xfrm>
         <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect">
           <a:avLst/>
@@ -7382,12 +7393,12 @@
   </cdr:relSizeAnchor>
   <cdr:relSizeAnchor xmlns:cdr="http://schemas.openxmlformats.org/drawingml/2006/chartDrawing">
     <cdr:from>
-      <cdr:x>0.32139</cdr:x>
-      <cdr:y>0.64099</cdr:y>
+      <cdr:x>0.7299</cdr:x>
+      <cdr:y>0.61752</cdr:y>
     </cdr:from>
     <cdr:to>
-      <cdr:x>0.37554</cdr:x>
-      <cdr:y>0.71501</cdr:y>
+      <cdr:x>0.78405</cdr:x>
+      <cdr:y>0.69154</cdr:y>
     </cdr:to>
     <cdr:sp macro="" textlink="">
       <cdr:nvSpPr>
@@ -7402,8 +7413,8 @@
       </cdr:nvSpPr>
       <cdr:spPr>
         <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-          <a:off x="2511367" y="2951942"/>
-          <a:ext cx="423082" cy="340842"/>
+          <a:off x="5703417" y="2843854"/>
+          <a:ext cx="423126" cy="340881"/>
         </a:xfrm>
         <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect">
           <a:avLst/>
@@ -7501,12 +7512,12 @@
   </cdr:relSizeAnchor>
   <cdr:relSizeAnchor xmlns:cdr="http://schemas.openxmlformats.org/drawingml/2006/chartDrawing">
     <cdr:from>
-      <cdr:x>0.32139</cdr:x>
-      <cdr:y>0.51464</cdr:y>
+      <cdr:x>0.7299</cdr:x>
+      <cdr:y>0.54894</cdr:y>
     </cdr:from>
     <cdr:to>
-      <cdr:x>0.37554</cdr:x>
-      <cdr:y>0.58865</cdr:y>
+      <cdr:x>0.78405</cdr:x>
+      <cdr:y>0.62295</cdr:y>
     </cdr:to>
     <cdr:sp macro="" textlink="">
       <cdr:nvSpPr>
@@ -7521,8 +7532,8 @@
       </cdr:nvSpPr>
       <cdr:spPr>
         <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-          <a:off x="2511367" y="2370051"/>
-          <a:ext cx="423082" cy="340842"/>
+          <a:off x="5703417" y="2527988"/>
+          <a:ext cx="423126" cy="340835"/>
         </a:xfrm>
         <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect">
           <a:avLst/>
@@ -7628,6 +7639,114 @@
             <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
             <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
           </a:endParaRPr>
+        </a:p>
+      </cdr:txBody>
+    </cdr:sp>
+  </cdr:relSizeAnchor>
+  <cdr:relSizeAnchor xmlns:cdr="http://schemas.openxmlformats.org/drawingml/2006/chartDrawing">
+    <cdr:from>
+      <cdr:x>0.23735</cdr:x>
+      <cdr:y>0.12655</cdr:y>
+    </cdr:from>
+    <cdr:to>
+      <cdr:x>0.29148</cdr:x>
+      <cdr:y>0.20055</cdr:y>
+    </cdr:to>
+    <cdr:sp macro="" textlink="">
+      <cdr:nvSpPr>
+        <cdr:cNvPr id="5" name="TextBox 1">
+          <a:extLst xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9572D331-A969-442A-A47E-122169F12FB7}"/>
+            </a:ext>
+          </a:extLst>
+        </cdr:cNvPr>
+        <cdr:cNvSpPr txBox="1"/>
+      </cdr:nvSpPr>
+      <cdr:spPr>
+        <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:off x="1854662" y="582814"/>
+          <a:ext cx="422970" cy="340789"/>
+        </a:xfrm>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </cdr:spPr>
+      <cdr:txBody>
+        <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" wrap="none" rtlCol="0"/>
+        <a:lstStyle xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:lvl1pPr marL="0" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl1pPr>
+          <a:lvl2pPr marL="457200" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl2pPr>
+          <a:lvl3pPr marL="914400" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl3pPr>
+          <a:lvl4pPr marL="1371600" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl4pPr>
+          <a:lvl5pPr marL="1828800" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl5pPr>
+          <a:lvl6pPr marL="2286000" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl6pPr>
+          <a:lvl7pPr marL="2743200" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl7pPr>
+          <a:lvl8pPr marL="3200400" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl8pPr>
+          <a:lvl9pPr marL="3657600" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl9pPr>
+        </a:lstStyle>
+        <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:r>
+            <a:rPr lang="en-US" sz="1600">
+              <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+              <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+            </a:rPr>
+            <a:t>HOAc</a:t>
+          </a:r>
         </a:p>
       </cdr:txBody>
     </cdr:sp>
@@ -7959,7 +8078,7 @@
   <dimension ref="A1:P306"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="M4" sqref="M4"/>
+      <selection activeCell="L15" sqref="L15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.05" x14ac:dyDescent="0.3"/>
@@ -13097,7 +13216,7 @@
         <v>231.8</v>
       </c>
       <c r="M142">
-        <f t="shared" ref="M136:M199" si="3">B137*M$2+M$3</f>
+        <f t="shared" ref="M142:M199" si="3">B137*M$2+M$3</f>
         <v>2708.5203618200771</v>
       </c>
       <c r="N142">
@@ -15881,7 +16000,7 @@
         <v>364.1</v>
       </c>
       <c r="M200">
-        <f t="shared" ref="M200:M263" si="62">B195*M$2+M$3</f>
+        <f t="shared" ref="M200:M201" si="62">B195*M$2+M$3</f>
         <v>2630.6574265991258</v>
       </c>
       <c r="N200">
@@ -15893,7 +16012,7 @@
         <v>7979.451312647182</v>
       </c>
       <c r="P200">
-        <f t="shared" ref="P200:P263" si="64">I195*P$2+P$3</f>
+        <f t="shared" ref="P200:P201" si="64">I195*P$2+P$3</f>
         <v>102.74697947618372</v>
       </c>
     </row>
@@ -15977,19 +16096,19 @@
         <v>370.7</v>
       </c>
       <c r="M202">
-        <f>B198*M$2+M$3</f>
+        <f t="shared" ref="M202:M233" si="66">B198*M$2+M$3</f>
         <v>2646.2761146379898</v>
       </c>
       <c r="N202">
-        <f>E198*N$2+N$3</f>
+        <f t="shared" ref="N202:N233" si="67">E198*N$2+N$3</f>
         <v>5370.8505004387389</v>
       </c>
       <c r="O202">
-        <f>F198*O$2+O$3</f>
+        <f t="shared" ref="O202:O233" si="68">F198*O$2+O$3</f>
         <v>7842.8703682862279</v>
       </c>
       <c r="P202">
-        <f>I198*P$2+P$3</f>
+        <f t="shared" ref="P202:P233" si="69">I198*P$2+P$3</f>
         <v>101.45012298361213</v>
       </c>
     </row>
@@ -16025,19 +16144,19 @@
         <v>373</v>
       </c>
       <c r="M203">
-        <f>B199*M$2+M$3</f>
+        <f t="shared" si="66"/>
         <v>2640.7284786515334</v>
       </c>
       <c r="N203">
-        <f>E199*N$2+N$3</f>
+        <f t="shared" si="67"/>
         <v>5211.6461288390492</v>
       </c>
       <c r="O203">
-        <f>F199*O$2+O$3</f>
+        <f t="shared" si="68"/>
         <v>7900.3336149483175</v>
       </c>
       <c r="P203">
-        <f>I199*P$2+P$3</f>
+        <f t="shared" si="69"/>
         <v>104.69762753923114</v>
       </c>
     </row>
@@ -16073,19 +16192,19 @@
         <v>375.3</v>
       </c>
       <c r="M204">
-        <f>B200*M$2+M$3</f>
+        <f t="shared" si="66"/>
         <v>2675.1810426650768</v>
       </c>
       <c r="N204">
-        <f>E200*N$2+N$3</f>
+        <f t="shared" si="67"/>
         <v>5190.5017572393481</v>
       </c>
       <c r="O204">
-        <f>F200*O$2+O$3</f>
+        <f t="shared" si="68"/>
         <v>7861.5128616104075</v>
       </c>
       <c r="P204">
-        <f>I200*P$2+P$3</f>
+        <f t="shared" si="69"/>
         <v>104.6731320948501</v>
       </c>
     </row>
@@ -16121,19 +16240,19 @@
         <v>377.7</v>
       </c>
       <c r="M205">
-        <f>B201*M$2+M$3</f>
+        <f t="shared" si="66"/>
         <v>2640.9385746792091</v>
       </c>
       <c r="N205">
-        <f>E201*N$2+N$3</f>
+        <f t="shared" si="67"/>
         <v>5256.9932825266296</v>
       </c>
       <c r="O205">
-        <f>F201*O$2+O$3</f>
+        <f t="shared" si="68"/>
         <v>7887.0463363882436</v>
       </c>
       <c r="P205">
-        <f>I201*P$2+P$3</f>
+        <f t="shared" si="69"/>
         <v>101.79409337027863</v>
       </c>
     </row>
@@ -16169,19 +16288,19 @@
         <v>380</v>
       </c>
       <c r="M206">
-        <f>B202*M$2+M$3</f>
+        <f t="shared" si="66"/>
         <v>2677.2836386927529</v>
       </c>
       <c r="N206">
-        <f>E202*N$2+N$3</f>
+        <f t="shared" si="67"/>
         <v>5437.8489109269394</v>
       </c>
       <c r="O206">
-        <f>F202*O$2+O$3</f>
+        <f t="shared" si="68"/>
         <v>7864.1695830503331</v>
       </c>
       <c r="P206">
-        <f>I202*P$2+P$3</f>
+        <f t="shared" si="69"/>
         <v>102.77459792589762</v>
       </c>
     </row>
@@ -16217,19 +16336,19 @@
         <v>382.3</v>
       </c>
       <c r="M207">
-        <f>B203*M$2+M$3</f>
+        <f t="shared" si="66"/>
         <v>2625.9715027062966</v>
       </c>
       <c r="N207">
-        <f>E203*N$2+N$3</f>
+        <f t="shared" si="67"/>
         <v>5287.5645393272498</v>
       </c>
       <c r="O207">
-        <f>F203*O$2+O$3</f>
+        <f t="shared" si="68"/>
         <v>7847.2528297124254</v>
       </c>
       <c r="P207">
-        <f>I203*P$2+P$3</f>
+        <f t="shared" si="69"/>
         <v>102.26610248151661</v>
       </c>
     </row>
@@ -16265,19 +16384,19 @@
         <v>384.6</v>
       </c>
       <c r="M208">
-        <f>B204*M$2+M$3</f>
+        <f t="shared" si="66"/>
         <v>2673.7347667198401</v>
       </c>
       <c r="N208">
-        <f>E204*N$2+N$3</f>
+        <f t="shared" si="67"/>
         <v>5379.6501677275501</v>
       </c>
       <c r="O208">
-        <f>F204*O$2+O$3</f>
+        <f t="shared" si="68"/>
         <v>7806.136076374517</v>
       </c>
       <c r="P208">
-        <f>I204*P$2+P$3</f>
+        <f t="shared" si="69"/>
         <v>102.97960703713561</v>
       </c>
     </row>
@@ -16313,19 +16432,19 @@
         <v>386.6</v>
       </c>
       <c r="M209">
-        <f>B205*M$2+M$3</f>
+        <f t="shared" si="66"/>
         <v>2640.5542267316168</v>
       </c>
       <c r="N209">
-        <f>E205*N$2+N$3</f>
+        <f t="shared" si="67"/>
         <v>5218.0181054669483</v>
       </c>
       <c r="O209">
-        <f>F205*O$2+O$3</f>
+        <f t="shared" si="68"/>
         <v>7782.4526386893767</v>
       </c>
       <c r="P209">
-        <f>I205*P$2+P$3</f>
+        <f t="shared" si="69"/>
         <v>103.27374143332602</v>
       </c>
     </row>
@@ -16361,19 +16480,19 @@
         <v>388.9</v>
       </c>
       <c r="M210">
-        <f>B206*M$2+M$3</f>
+        <f t="shared" si="66"/>
         <v>2666.6159907451606</v>
       </c>
       <c r="N210">
-        <f>E206*N$2+N$3</f>
+        <f t="shared" si="67"/>
         <v>5175.6137338672597</v>
       </c>
       <c r="O210">
-        <f>F206*O$2+O$3</f>
+        <f t="shared" si="68"/>
         <v>7807.8718853514683</v>
       </c>
       <c r="P210">
-        <f>I206*P$2+P$3</f>
+        <f t="shared" si="69"/>
         <v>103.12124598894502</v>
       </c>
     </row>
@@ -16409,19 +16528,19 @@
         <v>391.2</v>
       </c>
       <c r="M211">
-        <f>B207*M$2+M$3</f>
+        <f t="shared" si="66"/>
         <v>2636.1074547587041</v>
       </c>
       <c r="N211">
-        <f>E207*N$2+N$3</f>
+        <f t="shared" si="67"/>
         <v>4968.8993622675589</v>
       </c>
       <c r="O211">
-        <f>F207*O$2+O$3</f>
+        <f t="shared" si="68"/>
         <v>7773.3791320135615</v>
       </c>
       <c r="P211">
-        <f>I207*P$2+P$3</f>
+        <f t="shared" si="69"/>
         <v>102.94375054456403</v>
       </c>
     </row>
@@ -16457,19 +16576,19 @@
         <v>393.5</v>
       </c>
       <c r="M212">
-        <f>B208*M$2+M$3</f>
+        <f t="shared" si="66"/>
         <v>2655.6659187722476</v>
       </c>
       <c r="N212">
-        <f>E208*N$2+N$3</f>
+        <f t="shared" si="67"/>
         <v>5182.7449906678703</v>
       </c>
       <c r="O212">
-        <f>F208*O$2+O$3</f>
+        <f t="shared" si="68"/>
         <v>7752.0303786756513</v>
       </c>
       <c r="P212">
-        <f>I208*P$2+P$3</f>
+        <f t="shared" si="69"/>
         <v>103.07125510018301</v>
       </c>
     </row>
@@ -16505,19 +16624,19 @@
         <v>395.8</v>
       </c>
       <c r="M213">
-        <f>B209*M$2+M$3</f>
+        <f t="shared" si="66"/>
         <v>2623.9589827857912</v>
       </c>
       <c r="N213">
-        <f>E209*N$2+N$3</f>
+        <f t="shared" si="67"/>
         <v>4939.6106190681803</v>
       </c>
       <c r="O213">
-        <f>F209*O$2+O$3</f>
+        <f t="shared" si="68"/>
         <v>7719.1176253377425</v>
       </c>
       <c r="P213">
-        <f>I209*P$2+P$3</f>
+        <f t="shared" si="69"/>
         <v>103.07075965580201</v>
       </c>
     </row>
@@ -16553,19 +16672,19 @@
         <v>398.1</v>
       </c>
       <c r="M214">
-        <f>B210*M$2+M$3</f>
+        <f t="shared" si="66"/>
         <v>2660.0748467993344</v>
       </c>
       <c r="N214">
-        <f>E210*N$2+N$3</f>
+        <f t="shared" si="67"/>
         <v>4990.0462474684809</v>
       </c>
       <c r="O214">
-        <f>F210*O$2+O$3</f>
+        <f t="shared" si="68"/>
         <v>7732.2608719998343</v>
       </c>
       <c r="P214">
-        <f>I210*P$2+P$3</f>
+        <f t="shared" si="69"/>
         <v>103.173264211421</v>
       </c>
     </row>
@@ -16601,19 +16720,19 @@
         <v>400.4</v>
       </c>
       <c r="M215">
-        <f>B211*M$2+M$3</f>
+        <f t="shared" si="66"/>
         <v>2620.644410812878</v>
       </c>
       <c r="N215">
-        <f>E211*N$2+N$3</f>
+        <f t="shared" si="67"/>
         <v>4929.6818758687896</v>
       </c>
       <c r="O215">
-        <f>F211*O$2+O$3</f>
+        <f t="shared" si="68"/>
         <v>7683.7041186619253</v>
       </c>
       <c r="P215">
-        <f>I211*P$2+P$3</f>
+        <f t="shared" si="69"/>
         <v>103.32676876703997</v>
       </c>
     </row>
@@ -16649,19 +16768,19 @@
         <v>402.7</v>
       </c>
       <c r="M216">
-        <f>B212*M$2+M$3</f>
+        <f t="shared" si="66"/>
         <v>2670.8760748264217</v>
       </c>
       <c r="N216">
-        <f>E212*N$2+N$3</f>
+        <f t="shared" si="67"/>
         <v>5247.2075042690904</v>
       </c>
       <c r="O216">
-        <f>F212*O$2+O$3</f>
+        <f t="shared" si="68"/>
         <v>7751.8153653240161</v>
       </c>
       <c r="P216">
-        <f>I212*P$2+P$3</f>
+        <f t="shared" si="69"/>
         <v>102.75327332265897</v>
       </c>
     </row>
@@ -16697,19 +16816,19 @@
         <v>404.7</v>
       </c>
       <c r="M217">
-        <f>B213*M$2+M$3</f>
+        <f t="shared" si="66"/>
         <v>2635.899734838199</v>
       </c>
       <c r="N217">
-        <f>E213*N$2+N$3</f>
+        <f t="shared" si="67"/>
         <v>4903.9554420085005</v>
       </c>
       <c r="O217">
-        <f>F213*O$2+O$3</f>
+        <f t="shared" si="68"/>
         <v>7669.4959276388772</v>
       </c>
       <c r="P217">
-        <f>I213*P$2+P$3</f>
+        <f t="shared" si="69"/>
         <v>103.1244077188494</v>
       </c>
     </row>
@@ -16745,19 +16864,19 @@
         <v>407</v>
       </c>
       <c r="M218">
-        <f>B214*M$2+M$3</f>
+        <f t="shared" si="66"/>
         <v>2670.1674988517425</v>
       </c>
       <c r="N218">
-        <f>E214*N$2+N$3</f>
+        <f t="shared" si="67"/>
         <v>5080.2310704087904</v>
       </c>
       <c r="O218">
-        <f>F214*O$2+O$3</f>
+        <f t="shared" si="68"/>
         <v>7690.0751743009687</v>
       </c>
       <c r="P218">
-        <f>I214*P$2+P$3</f>
+        <f t="shared" si="69"/>
         <v>103.82591227446838</v>
       </c>
     </row>
@@ -16793,19 +16912,19 @@
         <v>409.3</v>
       </c>
       <c r="M219">
-        <f>B215*M$2+M$3</f>
+        <f t="shared" si="66"/>
         <v>2640.7199628652861</v>
       </c>
       <c r="N219">
-        <f>E215*N$2+N$3</f>
+        <f t="shared" si="67"/>
         <v>4839.3866988091013</v>
       </c>
       <c r="O219">
-        <f>F215*O$2+O$3</f>
+        <f t="shared" si="68"/>
         <v>7656.8584209630599</v>
       </c>
       <c r="P219">
-        <f>I215*P$2+P$3</f>
+        <f t="shared" si="69"/>
         <v>103.04841683008738</v>
       </c>
     </row>
@@ -16841,19 +16960,19 @@
         <v>411.6</v>
       </c>
       <c r="M220">
-        <f>B216*M$2+M$3</f>
+        <f t="shared" si="66"/>
         <v>2672.8276268788295</v>
       </c>
       <c r="N220">
-        <f>E216*N$2+N$3</f>
+        <f t="shared" si="67"/>
         <v>5073.7423272094111</v>
       </c>
       <c r="O220">
-        <f>F216*O$2+O$3</f>
+        <f t="shared" si="68"/>
         <v>7713.8616676251504</v>
       </c>
       <c r="P220">
-        <f>I216*P$2+P$3</f>
+        <f t="shared" si="69"/>
         <v>103.80092138570636</v>
       </c>
     </row>
@@ -16889,19 +17008,19 @@
         <v>413.9</v>
       </c>
       <c r="M221">
-        <f>B217*M$2+M$3</f>
+        <f t="shared" si="66"/>
         <v>2643.3354908923729</v>
       </c>
       <c r="N221">
-        <f>E217*N$2+N$3</f>
+        <f t="shared" si="67"/>
         <v>4849.0679556097184</v>
       </c>
       <c r="O221">
-        <f>F217*O$2+O$3</f>
+        <f t="shared" si="68"/>
         <v>7698.7809142872438</v>
       </c>
       <c r="P221">
-        <f>I217*P$2+P$3</f>
+        <f t="shared" si="69"/>
         <v>102.94742594132538</v>
       </c>
     </row>
@@ -16937,19 +17056,19 @@
         <v>416.2</v>
       </c>
       <c r="M222">
-        <f>B218*M$2+M$3</f>
+        <f t="shared" si="66"/>
         <v>2668.3872549059165</v>
       </c>
       <c r="N222">
-        <f>E218*N$2+N$3</f>
+        <f t="shared" si="67"/>
         <v>5214.4835840100204</v>
       </c>
       <c r="O222">
-        <f>F218*O$2+O$3</f>
+        <f t="shared" si="68"/>
         <v>7698.6241609493327</v>
       </c>
       <c r="P222">
-        <f>I218*P$2+P$3</f>
+        <f t="shared" si="69"/>
         <v>104.13193049694436</v>
       </c>
     </row>
@@ -16985,19 +17104,19 @@
         <v>418.5</v>
       </c>
       <c r="M223">
-        <f>B219*M$2+M$3</f>
+        <f t="shared" si="66"/>
         <v>2645.4964189194602</v>
       </c>
       <c r="N223">
-        <f>E219*N$2+N$3</f>
+        <f t="shared" si="67"/>
         <v>5024.0692124103298</v>
       </c>
       <c r="O223">
-        <f>F219*O$2+O$3</f>
+        <f t="shared" si="68"/>
         <v>7655.7274076114254</v>
       </c>
       <c r="P223">
-        <f>I219*P$2+P$3</f>
+        <f t="shared" si="69"/>
         <v>103.67343505256333</v>
       </c>
     </row>
@@ -17033,19 +17152,19 @@
         <v>420.8</v>
       </c>
       <c r="M224">
-        <f>B220*M$2+M$3</f>
+        <f t="shared" si="66"/>
         <v>2642.4374829330036</v>
       </c>
       <c r="N224">
-        <f>E220*N$2+N$3</f>
+        <f t="shared" si="67"/>
         <v>5180.604840810629</v>
       </c>
       <c r="O224">
-        <f>F220*O$2+O$3</f>
+        <f t="shared" si="68"/>
         <v>7710.4386542735147</v>
       </c>
       <c r="P224">
-        <f>I220*P$2+P$3</f>
+        <f t="shared" si="69"/>
         <v>103.31793960818234</v>
       </c>
     </row>
@@ -17081,19 +17200,19 @@
         <v>423.1</v>
       </c>
       <c r="M225">
-        <f>B221*M$2+M$3</f>
+        <f t="shared" si="66"/>
         <v>2641.7870469465474</v>
       </c>
       <c r="N225">
-        <f>E221*N$2+N$3</f>
+        <f t="shared" si="67"/>
         <v>5261.8704692109386</v>
       </c>
       <c r="O225">
-        <f>F221*O$2+O$3</f>
+        <f t="shared" si="68"/>
         <v>7601.3099009356074</v>
       </c>
       <c r="P225">
-        <f>I221*P$2+P$3</f>
+        <f t="shared" si="69"/>
         <v>104.17144416380134</v>
       </c>
     </row>
@@ -17129,19 +17248,19 @@
         <v>425.1</v>
       </c>
       <c r="M226">
-        <f>B222*M$2+M$3</f>
+        <f t="shared" si="66"/>
         <v>2657.6558069583243</v>
       </c>
       <c r="N226">
-        <f>E222*N$2+N$3</f>
+        <f t="shared" si="67"/>
         <v>4930.4684069503401</v>
       </c>
       <c r="O226">
-        <f>F222*O$2+O$3</f>
+        <f t="shared" si="68"/>
         <v>7659.2464632504698</v>
       </c>
       <c r="P226">
-        <f>I222*P$2+P$3</f>
+        <f t="shared" si="69"/>
         <v>102.81057855999177</v>
       </c>
     </row>
@@ -17177,19 +17296,19 @@
         <v>427.4</v>
       </c>
       <c r="M227">
-        <f>B223*M$2+M$3</f>
+        <f t="shared" si="66"/>
         <v>2636.0640709718677</v>
       </c>
       <c r="N227">
-        <f>E223*N$2+N$3</f>
+        <f t="shared" si="67"/>
         <v>5162.2740353506397</v>
       </c>
       <c r="O227">
-        <f>F223*O$2+O$3</f>
+        <f t="shared" si="68"/>
         <v>7687.413709912561</v>
       </c>
       <c r="P227">
-        <f>I223*P$2+P$3</f>
+        <f t="shared" si="69"/>
         <v>103.90608311561074</v>
       </c>
     </row>
@@ -17225,19 +17344,19 @@
         <v>429.7</v>
       </c>
       <c r="M228">
-        <f>B224*M$2+M$3</f>
+        <f t="shared" si="66"/>
         <v>2657.6859349854112</v>
       </c>
       <c r="N228">
-        <f>E224*N$2+N$3</f>
+        <f t="shared" si="67"/>
         <v>5201.7596637509487</v>
       </c>
       <c r="O228">
-        <f>F224*O$2+O$3</f>
+        <f t="shared" si="68"/>
         <v>7690.5729565746506</v>
       </c>
       <c r="P228">
-        <f>I224*P$2+P$3</f>
+        <f t="shared" si="69"/>
         <v>103.29458767122975</v>
       </c>
     </row>
@@ -17273,19 +17392,19 @@
         <v>432</v>
       </c>
       <c r="M229">
-        <f>B225*M$2+M$3</f>
+        <f t="shared" si="66"/>
         <v>2665.5993989989547</v>
       </c>
       <c r="N229">
-        <f>E225*N$2+N$3</f>
+        <f t="shared" si="67"/>
         <v>5541.565292151261</v>
       </c>
       <c r="O229">
-        <f>F225*O$2+O$3</f>
+        <f t="shared" si="68"/>
         <v>7635.9562032367421</v>
       </c>
       <c r="P229">
-        <f>I225*P$2+P$3</f>
+        <f t="shared" si="69"/>
         <v>103.12909222684874</v>
       </c>
     </row>
@@ -17321,19 +17440,19 @@
         <v>434.3</v>
       </c>
       <c r="M230">
-        <f>B226*M$2+M$3</f>
+        <f t="shared" si="66"/>
         <v>2619.5753630124987</v>
       </c>
       <c r="N230">
-        <f>E226*N$2+N$3</f>
+        <f t="shared" si="67"/>
         <v>5258.8209205515705</v>
       </c>
       <c r="O230">
-        <f>F226*O$2+O$3</f>
+        <f t="shared" si="68"/>
         <v>7676.4554498988318</v>
       </c>
       <c r="P230">
-        <f>I226*P$2+P$3</f>
+        <f t="shared" si="69"/>
         <v>103.84259678246771</v>
       </c>
     </row>
@@ -17369,19 +17488,19 @@
         <v>436.6</v>
       </c>
       <c r="M231">
-        <f>B227*M$2+M$3</f>
+        <f t="shared" si="66"/>
         <v>2674.9564270260421</v>
       </c>
       <c r="N231">
-        <f>E227*N$2+N$3</f>
+        <f t="shared" si="67"/>
         <v>5332.6965489518698</v>
       </c>
       <c r="O231">
-        <f>F227*O$2+O$3</f>
+        <f t="shared" si="68"/>
         <v>7629.2226965609252</v>
       </c>
       <c r="P231">
-        <f>I227*P$2+P$3</f>
+        <f t="shared" si="69"/>
         <v>102.73510133808669</v>
       </c>
     </row>
@@ -17417,19 +17536,19 @@
         <v>438.9</v>
       </c>
       <c r="M232">
-        <f>B228*M$2+M$3</f>
+        <f t="shared" si="66"/>
         <v>2633.2601910395852</v>
       </c>
       <c r="N232">
-        <f>E228*N$2+N$3</f>
+        <f t="shared" si="67"/>
         <v>5011.4821773521799</v>
       </c>
       <c r="O232">
-        <f>F228*O$2+O$3</f>
+        <f t="shared" si="68"/>
         <v>7615.4139432230158</v>
       </c>
       <c r="P232">
-        <f>I228*P$2+P$3</f>
+        <f t="shared" si="69"/>
         <v>104.4676058937057</v>
       </c>
     </row>
@@ -17465,19 +17584,19 @@
         <v>441.2</v>
       </c>
       <c r="M233">
-        <f>B229*M$2+M$3</f>
+        <f t="shared" si="66"/>
         <v>2676.9567550531292</v>
       </c>
       <c r="N233">
-        <f>E229*N$2+N$3</f>
+        <f t="shared" si="67"/>
         <v>5466.0478057524797</v>
       </c>
       <c r="O233">
-        <f>F229*O$2+O$3</f>
+        <f t="shared" si="68"/>
         <v>7573.433189885106</v>
       </c>
       <c r="P233">
-        <f>I229*P$2+P$3</f>
+        <f t="shared" si="69"/>
         <v>102.67211044932469</v>
       </c>
     </row>
@@ -17513,19 +17632,19 @@
         <v>443.5</v>
       </c>
       <c r="M234">
-        <f>B230*M$2+M$3</f>
+        <f t="shared" ref="M234:M265" si="70">B230*M$2+M$3</f>
         <v>2641.5346190666723</v>
       </c>
       <c r="N234">
-        <f>E230*N$2+N$3</f>
+        <f t="shared" ref="N234:N265" si="71">E230*N$2+N$3</f>
         <v>5357.6634341527897</v>
       </c>
       <c r="O234">
-        <f>F230*O$2+O$3</f>
+        <f t="shared" ref="O234:O265" si="72">F230*O$2+O$3</f>
         <v>7689.6364365471973</v>
       </c>
       <c r="P234">
-        <f>I230*P$2+P$3</f>
+        <f t="shared" ref="P234:P265" si="73">I230*P$2+P$3</f>
         <v>103.04161500494369</v>
       </c>
     </row>
@@ -17561,19 +17680,19 @@
         <v>445.8</v>
       </c>
       <c r="M235">
-        <f>B231*M$2+M$3</f>
+        <f t="shared" si="70"/>
         <v>2681.7235830802165</v>
       </c>
       <c r="N235">
-        <f>E231*N$2+N$3</f>
+        <f t="shared" si="71"/>
         <v>5219.3490625530994</v>
       </c>
       <c r="O235">
-        <f>F231*O$2+O$3</f>
+        <f t="shared" si="72"/>
         <v>7671.85568320929</v>
       </c>
       <c r="P235">
-        <f>I231*P$2+P$3</f>
+        <f t="shared" si="73"/>
         <v>103.18211956056268</v>
       </c>
     </row>
@@ -17609,19 +17728,19 @@
         <v>448.1</v>
       </c>
       <c r="M236">
-        <f>B232*M$2+M$3</f>
+        <f t="shared" si="70"/>
         <v>2646.24274709376</v>
       </c>
       <c r="N236">
-        <f>E232*N$2+N$3</f>
+        <f t="shared" si="71"/>
         <v>5477.3846909534004</v>
       </c>
       <c r="O236">
-        <f>F232*O$2+O$3</f>
+        <f t="shared" si="72"/>
         <v>7636.2429298713805</v>
       </c>
       <c r="P236">
-        <f>I232*P$2+P$3</f>
+        <f t="shared" si="73"/>
         <v>103.65362411618166</v>
       </c>
     </row>
@@ -17657,19 +17776,19 @@
         <v>450.4</v>
       </c>
       <c r="M237">
-        <f>B233*M$2+M$3</f>
+        <f t="shared" si="70"/>
         <v>2676.7545111073032</v>
       </c>
       <c r="N237">
-        <f>E233*N$2+N$3</f>
+        <f t="shared" si="71"/>
         <v>5616.73031935371</v>
       </c>
       <c r="O237">
-        <f>F233*O$2+O$3</f>
+        <f t="shared" si="72"/>
         <v>7643.0661765334708</v>
       </c>
       <c r="P237">
-        <f>I233*P$2+P$3</f>
+        <f t="shared" si="73"/>
         <v>102.38012867180065</v>
       </c>
     </row>
@@ -17705,19 +17824,19 @@
         <v>452.7</v>
       </c>
       <c r="M238">
-        <f>B234*M$2+M$3</f>
+        <f t="shared" si="70"/>
         <v>2639.3352751208467</v>
       </c>
       <c r="N238">
-        <f>E234*N$2+N$3</f>
+        <f t="shared" si="71"/>
         <v>5421.7359477540213</v>
       </c>
       <c r="O238">
-        <f>F234*O$2+O$3</f>
+        <f t="shared" si="72"/>
         <v>7676.8414231955621</v>
       </c>
       <c r="P238">
-        <f>I234*P$2+P$3</f>
+        <f t="shared" si="73"/>
         <v>103.67863322741964</v>
       </c>
     </row>
@@ -17753,19 +17872,19 @@
         <v>455.1</v>
       </c>
       <c r="M239">
-        <f>B235*M$2+M$3</f>
+        <f t="shared" si="70"/>
         <v>2681.8134071349791</v>
       </c>
       <c r="N239">
-        <f>E235*N$2+N$3</f>
+        <f t="shared" si="71"/>
         <v>5787.9074730413013</v>
       </c>
       <c r="O239">
-        <f>F235*O$2+O$3</f>
+        <f t="shared" si="72"/>
         <v>7679.4988979733962</v>
       </c>
       <c r="P239">
-        <f>I235*P$2+P$3</f>
+        <f t="shared" si="73"/>
         <v>102.96559450284816</v>
       </c>
     </row>
@@ -17801,19 +17920,19 @@
         <v>457.4</v>
       </c>
       <c r="M240">
-        <f>B236*M$2+M$3</f>
+        <f t="shared" si="70"/>
         <v>2644.7697711485225</v>
       </c>
       <c r="N240">
-        <f>E236*N$2+N$3</f>
+        <f t="shared" si="71"/>
         <v>5151.6031014415985</v>
       </c>
       <c r="O240">
-        <f>F236*O$2+O$3</f>
+        <f t="shared" si="72"/>
         <v>7575.2621446354869</v>
       </c>
       <c r="P240">
-        <f>I236*P$2+P$3</f>
+        <f t="shared" si="73"/>
         <v>103.15709905846715</v>
       </c>
     </row>
@@ -17849,19 +17968,19 @@
         <v>459.4</v>
       </c>
       <c r="M241">
-        <f>B237*M$2+M$3</f>
+        <f t="shared" si="70"/>
         <v>2666.3509311602998</v>
       </c>
       <c r="N241">
-        <f>E237*N$2+N$3</f>
+        <f t="shared" si="71"/>
         <v>5536.621039181</v>
       </c>
       <c r="O241">
-        <f>F237*O$2+O$3</f>
+        <f t="shared" si="72"/>
         <v>7607.2147069503508</v>
       </c>
       <c r="P241">
-        <f>I237*P$2+P$3</f>
+        <f t="shared" si="73"/>
         <v>103.19723345465758</v>
       </c>
     </row>
@@ -17897,19 +18016,19 @@
         <v>461.7</v>
       </c>
       <c r="M242">
-        <f>B238*M$2+M$3</f>
+        <f t="shared" si="70"/>
         <v>2640.3854951738435</v>
       </c>
       <c r="N242">
-        <f>E238*N$2+N$3</f>
+        <f t="shared" si="71"/>
         <v>5407.8566675812999</v>
       </c>
       <c r="O242">
-        <f>F238*O$2+O$3</f>
+        <f t="shared" si="72"/>
         <v>7590.6019536124413</v>
       </c>
       <c r="P242">
-        <f>I238*P$2+P$3</f>
+        <f t="shared" si="73"/>
         <v>103.32473801027658</v>
       </c>
     </row>
@@ -17945,19 +18064,19 @@
         <v>464</v>
       </c>
       <c r="M243">
-        <f>B239*M$2+M$3</f>
+        <f t="shared" si="70"/>
         <v>2677.638659187387</v>
       </c>
       <c r="N243">
-        <f>E239*N$2+N$3</f>
+        <f t="shared" si="71"/>
         <v>5511.2822959816094</v>
       </c>
       <c r="O243">
-        <f>F239*O$2+O$3</f>
+        <f t="shared" si="72"/>
         <v>7712.5652002745328</v>
       </c>
       <c r="P243">
-        <f>I239*P$2+P$3</f>
+        <f t="shared" si="73"/>
         <v>102.58624256589556</v>
       </c>
     </row>
@@ -17993,19 +18112,19 @@
         <v>466.3</v>
       </c>
       <c r="M244">
-        <f>B240*M$2+M$3</f>
+        <f t="shared" si="70"/>
         <v>2649.3476232009307</v>
       </c>
       <c r="N244">
-        <f>E240*N$2+N$3</f>
+        <f t="shared" si="71"/>
         <v>5323.6779243819201</v>
       </c>
       <c r="O244">
-        <f>F240*O$2+O$3</f>
+        <f t="shared" si="72"/>
         <v>7586.5204469366226</v>
       </c>
       <c r="P244">
-        <f>I240*P$2+P$3</f>
+        <f t="shared" si="73"/>
         <v>102.76474712151453</v>
       </c>
     </row>
@@ -18041,19 +18160,19 @@
         <v>468.6</v>
       </c>
       <c r="M245">
-        <f>B241*M$2+M$3</f>
+        <f t="shared" si="70"/>
         <v>2676.9733872144743</v>
       </c>
       <c r="N245">
-        <f>E241*N$2+N$3</f>
+        <f t="shared" si="71"/>
         <v>5489.503552782222</v>
       </c>
       <c r="O245">
-        <f>F241*O$2+O$3</f>
+        <f t="shared" si="72"/>
         <v>7656.1116935987129</v>
       </c>
       <c r="P245">
-        <f>I241*P$2+P$3</f>
+        <f t="shared" si="73"/>
         <v>102.40825167713353</v>
       </c>
     </row>
@@ -18089,19 +18208,19 @@
         <v>470.9</v>
       </c>
       <c r="M246">
-        <f>B242*M$2+M$3</f>
+        <f t="shared" si="70"/>
         <v>2640.8684512280174</v>
       </c>
       <c r="N246">
-        <f>E242*N$2+N$3</f>
+        <f t="shared" si="71"/>
         <v>5378.3191811825309</v>
       </c>
       <c r="O246">
-        <f>F242*O$2+O$3</f>
+        <f t="shared" si="72"/>
         <v>7646.9389402608058</v>
       </c>
       <c r="P246">
-        <f>I242*P$2+P$3</f>
+        <f t="shared" si="73"/>
         <v>103.27475623275254</v>
       </c>
     </row>
@@ -18137,19 +18256,19 @@
         <v>473.2</v>
       </c>
       <c r="M247">
-        <f>B243*M$2+M$3</f>
+        <f t="shared" si="70"/>
         <v>2675.1413152415612</v>
       </c>
       <c r="N247">
-        <f>E243*N$2+N$3</f>
+        <f t="shared" si="71"/>
         <v>5247.5148095828408</v>
       </c>
       <c r="O247">
-        <f>F243*O$2+O$3</f>
+        <f t="shared" si="72"/>
         <v>7636.1341869228972</v>
       </c>
       <c r="P247">
-        <f>I243*P$2+P$3</f>
+        <f t="shared" si="73"/>
         <v>102.89226078837152</v>
       </c>
     </row>
@@ -18185,19 +18304,19 @@
         <v>475.6</v>
       </c>
       <c r="M248">
-        <f>B244*M$2+M$3</f>
+        <f t="shared" si="70"/>
         <v>2640.8059472556934</v>
       </c>
       <c r="N248">
-        <f>E244*N$2+N$3</f>
+        <f t="shared" si="71"/>
         <v>5626.0463348701087</v>
       </c>
       <c r="O248">
-        <f>F244*O$2+O$3</f>
+        <f t="shared" si="72"/>
         <v>7619.1276617007306</v>
       </c>
       <c r="P248">
-        <f>I244*P$2+P$3</f>
+        <f t="shared" si="73"/>
         <v>102.61222206380006</v>
       </c>
     </row>
@@ -18233,19 +18352,19 @@
         <v>477.9</v>
       </c>
       <c r="M249">
-        <f>B245*M$2+M$3</f>
+        <f t="shared" si="70"/>
         <v>2662.3832112692371</v>
       </c>
       <c r="N249">
-        <f>E245*N$2+N$3</f>
+        <f t="shared" si="71"/>
         <v>5733.1619632704205</v>
       </c>
       <c r="O249">
-        <f>F245*O$2+O$3</f>
+        <f t="shared" si="72"/>
         <v>7689.6869083628217</v>
       </c>
       <c r="P249">
-        <f>I245*P$2+P$3</f>
+        <f t="shared" si="73"/>
         <v>103.08372661941904</v>
       </c>
     </row>
@@ -18281,19 +18400,19 @@
         <v>480.2</v>
       </c>
       <c r="M250">
-        <f>B246*M$2+M$3</f>
+        <f t="shared" si="70"/>
         <v>2664.4251752827809</v>
       </c>
       <c r="N250">
-        <f>E246*N$2+N$3</f>
+        <f t="shared" si="71"/>
         <v>5616.87759167072</v>
       </c>
       <c r="O250">
-        <f>F246*O$2+O$3</f>
+        <f t="shared" si="72"/>
         <v>7676.538155024914</v>
       </c>
       <c r="P250">
-        <f>I246*P$2+P$3</f>
+        <f t="shared" si="73"/>
         <v>101.68323117503802</v>
       </c>
     </row>
@@ -18329,19 +18448,19 @@
         <v>482.2</v>
       </c>
       <c r="M251">
-        <f>B247*M$2+M$3</f>
+        <f t="shared" si="70"/>
         <v>2646.2915352945574</v>
       </c>
       <c r="N251">
-        <f>E247*N$2+N$3</f>
+        <f t="shared" si="71"/>
         <v>5652.5455294101193</v>
       </c>
       <c r="O251">
-        <f>F247*O$2+O$3</f>
+        <f t="shared" si="72"/>
         <v>7701.3067173397767</v>
       </c>
       <c r="P251">
-        <f>I247*P$2+P$3</f>
+        <f t="shared" si="73"/>
         <v>102.79336557122845</v>
       </c>
     </row>
@@ -18377,19 +18496,19 @@
         <v>484.8</v>
       </c>
       <c r="M252">
-        <f>B248*M$2+M$3</f>
+        <f t="shared" si="70"/>
         <v>2685.1826033098678</v>
       </c>
       <c r="N252">
-        <f>E248*N$2+N$3</f>
+        <f t="shared" si="71"/>
         <v>5755.8388484713396</v>
       </c>
       <c r="O252">
-        <f>F248*O$2+O$3</f>
+        <f t="shared" si="72"/>
         <v>7651.2646483490962</v>
       </c>
       <c r="P252">
-        <f>I248*P$2+P$3</f>
+        <f t="shared" si="73"/>
         <v>103.555240286276</v>
       </c>
     </row>
@@ -18425,19 +18544,19 @@
         <v>486.8</v>
       </c>
       <c r="M253">
-        <f>B249*M$2+M$3</f>
+        <f t="shared" si="70"/>
         <v>2646.7367633216445</v>
       </c>
       <c r="N253">
-        <f>E249*N$2+N$3</f>
+        <f t="shared" si="71"/>
         <v>5734.0567862107309</v>
       </c>
       <c r="O253">
-        <f>F249*O$2+O$3</f>
+        <f t="shared" si="72"/>
         <v>7798.1492106639589</v>
       </c>
       <c r="P253">
-        <f>I249*P$2+P$3</f>
+        <f t="shared" si="73"/>
         <v>101.43037468246644</v>
       </c>
     </row>
@@ -18473,19 +18592,19 @@
         <v>489.1</v>
       </c>
       <c r="M254">
-        <f>B250*M$2+M$3</f>
+        <f t="shared" si="70"/>
         <v>2680.3346273351881</v>
       </c>
       <c r="N254">
-        <f>E250*N$2+N$3</f>
+        <f t="shared" si="71"/>
         <v>5888.9424146110396</v>
       </c>
       <c r="O254">
-        <f>F250*O$2+O$3</f>
+        <f t="shared" si="72"/>
         <v>7706.4964573260486</v>
       </c>
       <c r="P254">
-        <f>I250*P$2+P$3</f>
+        <f t="shared" si="73"/>
         <v>102.57687923808543</v>
       </c>
     </row>
@@ -18521,19 +18640,19 @@
         <v>491.4</v>
       </c>
       <c r="M255">
-        <f>B251*M$2+M$3</f>
+        <f t="shared" si="70"/>
         <v>2639.9527913487318</v>
       </c>
       <c r="N255">
-        <f>E251*N$2+N$3</f>
+        <f t="shared" si="71"/>
         <v>5644.9080430113499</v>
       </c>
       <c r="O255">
-        <f>F251*O$2+O$3</f>
+        <f t="shared" si="72"/>
         <v>7760.0877039881407</v>
       </c>
       <c r="P255">
-        <f>I251*P$2+P$3</f>
+        <f t="shared" si="73"/>
         <v>102.99738379370442</v>
       </c>
     </row>
@@ -18569,19 +18688,19 @@
         <v>493.7</v>
       </c>
       <c r="M256">
-        <f>B252*M$2+M$3</f>
+        <f t="shared" si="70"/>
         <v>2653.0208553622751</v>
       </c>
       <c r="N256">
-        <f>E252*N$2+N$3</f>
+        <f t="shared" si="71"/>
         <v>5960.2636714116597</v>
       </c>
       <c r="O256">
-        <f>F252*O$2+O$3</f>
+        <f t="shared" si="72"/>
         <v>7731.7589506502309</v>
       </c>
       <c r="P256">
-        <f>I252*P$2+P$3</f>
+        <f t="shared" si="73"/>
         <v>102.36088834932339</v>
       </c>
     </row>
@@ -18617,19 +18736,19 @@
         <v>496</v>
       </c>
       <c r="M257">
-        <f>B253*M$2+M$3</f>
+        <f t="shared" si="70"/>
         <v>2643.4243193758189</v>
       </c>
       <c r="N257">
-        <f>E253*N$2+N$3</f>
+        <f t="shared" si="71"/>
         <v>5703.759299811958</v>
       </c>
       <c r="O257">
-        <f>F253*O$2+O$3</f>
+        <f t="shared" si="72"/>
         <v>7850.9221973123213</v>
       </c>
       <c r="P257">
-        <f>I253*P$2+P$3</f>
+        <f t="shared" si="73"/>
         <v>103.6603929049424</v>
       </c>
     </row>
@@ -18665,19 +18784,19 @@
         <v>498.3</v>
       </c>
       <c r="M258">
-        <f>B254*M$2+M$3</f>
+        <f t="shared" si="70"/>
         <v>2678.9300833893622</v>
       </c>
       <c r="N258">
-        <f>E254*N$2+N$3</f>
+        <f t="shared" si="71"/>
         <v>6042.4149282122708</v>
       </c>
       <c r="O258">
-        <f>F254*O$2+O$3</f>
+        <f t="shared" si="72"/>
         <v>7881.7414439744143</v>
       </c>
       <c r="P258">
-        <f>I254*P$2+P$3</f>
+        <f t="shared" si="73"/>
         <v>103.48189746056137</v>
       </c>
     </row>
@@ -18713,19 +18832,19 @@
         <v>500.6</v>
       </c>
       <c r="M259">
-        <f>B255*M$2+M$3</f>
+        <f t="shared" si="70"/>
         <v>2640.6052474029061</v>
       </c>
       <c r="N259">
-        <f>E255*N$2+N$3</f>
+        <f t="shared" si="71"/>
         <v>5847.1705566125802</v>
       </c>
       <c r="O259">
-        <f>F255*O$2+O$3</f>
+        <f t="shared" si="72"/>
         <v>7931.9166906365053</v>
       </c>
       <c r="P259">
-        <f>I255*P$2+P$3</f>
+        <f t="shared" si="73"/>
         <v>102.01740201618037</v>
       </c>
     </row>
@@ -18761,19 +18880,19 @@
         <v>502.9</v>
       </c>
       <c r="M260">
-        <f>B256*M$2+M$3</f>
+        <f t="shared" si="70"/>
         <v>2682.7811114164497</v>
       </c>
       <c r="N260">
-        <f>E256*N$2+N$3</f>
+        <f t="shared" si="71"/>
         <v>5986.7661850128789</v>
       </c>
       <c r="O260">
-        <f>F256*O$2+O$3</f>
+        <f t="shared" si="72"/>
         <v>8079.5079372985956</v>
       </c>
       <c r="P260">
-        <f>I256*P$2+P$3</f>
+        <f t="shared" si="73"/>
         <v>102.10690657179937</v>
       </c>
     </row>
@@ -18809,19 +18928,19 @@
         <v>505.3</v>
       </c>
       <c r="M261">
-        <f>B257*M$2+M$3</f>
+        <f t="shared" si="70"/>
         <v>2645.571043430582</v>
       </c>
       <c r="N261">
-        <f>E257*N$2+N$3</f>
+        <f t="shared" si="71"/>
         <v>5744.5177103001606</v>
       </c>
       <c r="O261">
-        <f>F257*O$2+O$3</f>
+        <f t="shared" si="72"/>
         <v>8045.2814120764297</v>
       </c>
       <c r="P261">
-        <f>I257*P$2+P$3</f>
+        <f t="shared" si="73"/>
         <v>102.41286784722789</v>
       </c>
     </row>
@@ -18857,19 +18976,19 @@
         <v>507.6</v>
       </c>
       <c r="M262">
-        <f>B258*M$2+M$3</f>
+        <f t="shared" si="70"/>
         <v>2672.6772074441255</v>
       </c>
       <c r="N262">
-        <f>E258*N$2+N$3</f>
+        <f t="shared" si="71"/>
         <v>6105.3433387004607</v>
       </c>
       <c r="O262">
-        <f>F258*O$2+O$3</f>
+        <f t="shared" si="72"/>
         <v>8233.6246587385212</v>
       </c>
       <c r="P262">
-        <f>I258*P$2+P$3</f>
+        <f t="shared" si="73"/>
         <v>102.32337240284689</v>
       </c>
     </row>
@@ -18905,19 +19024,19 @@
         <v>509.9</v>
       </c>
       <c r="M263">
-        <f>B259*M$2+M$3</f>
+        <f t="shared" si="70"/>
         <v>2626.9880714576693</v>
       </c>
       <c r="N263">
-        <f>E259*N$2+N$3</f>
+        <f t="shared" si="71"/>
         <v>6157.6989671007705</v>
       </c>
       <c r="O263">
-        <f>F259*O$2+O$3</f>
+        <f t="shared" si="72"/>
         <v>8225.6759054006106</v>
       </c>
       <c r="P263">
-        <f>I259*P$2+P$3</f>
+        <f t="shared" si="73"/>
         <v>103.24087695846588</v>
       </c>
     </row>
@@ -18953,19 +19072,19 @@
         <v>512.20000000000005</v>
       </c>
       <c r="M264">
-        <f>B260*M$2+M$3</f>
+        <f t="shared" si="70"/>
         <v>2673.0129354712126</v>
       </c>
       <c r="N264">
-        <f>E260*N$2+N$3</f>
+        <f t="shared" si="71"/>
         <v>5932.5145955010794</v>
       </c>
       <c r="O264">
-        <f>F260*O$2+O$3</f>
+        <f t="shared" si="72"/>
         <v>8421.1511520627027</v>
       </c>
       <c r="P264">
-        <f>I260*P$2+P$3</f>
+        <f t="shared" si="73"/>
         <v>102.60438151408485</v>
       </c>
     </row>
@@ -19001,19 +19120,19 @@
         <v>514.5</v>
       </c>
       <c r="M265">
-        <f>B261*M$2+M$3</f>
+        <f t="shared" si="70"/>
         <v>2647.6218994847559</v>
       </c>
       <c r="N265">
-        <f>E261*N$2+N$3</f>
+        <f t="shared" si="71"/>
         <v>6192.3402239013813</v>
       </c>
       <c r="O265">
-        <f>F261*O$2+O$3</f>
+        <f t="shared" si="72"/>
         <v>8520.6943987247942</v>
       </c>
       <c r="P265">
-        <f>I261*P$2+P$3</f>
+        <f t="shared" si="73"/>
         <v>103.16488606970387</v>
       </c>
     </row>
@@ -19049,19 +19168,19 @@
         <v>516.79999999999995</v>
       </c>
       <c r="M266">
-        <f>B262*M$2+M$3</f>
+        <f t="shared" ref="M266:M297" si="74">B262*M$2+M$3</f>
         <v>2643.1123634982996</v>
       </c>
       <c r="N266">
-        <f>E262*N$2+N$3</f>
+        <f t="shared" ref="N266:N297" si="75">E262*N$2+N$3</f>
         <v>6090.7058523016894</v>
       </c>
       <c r="O266">
-        <f>F262*O$2+O$3</f>
+        <f t="shared" ref="O266:O297" si="76">F262*O$2+O$3</f>
         <v>8760.6496453868858</v>
       </c>
       <c r="P266">
-        <f>I262*P$2+P$3</f>
+        <f t="shared" ref="P266:P297" si="77">I262*P$2+P$3</f>
         <v>102.55439062532282</v>
       </c>
     </row>
@@ -19097,19 +19216,19 @@
         <v>519.1</v>
       </c>
       <c r="M267">
-        <f>B263*M$2+M$3</f>
+        <f t="shared" si="74"/>
         <v>2665.1327275118433</v>
       </c>
       <c r="N267">
-        <f>E263*N$2+N$3</f>
+        <f t="shared" si="75"/>
         <v>6371.0414807019988</v>
       </c>
       <c r="O267">
-        <f>F263*O$2+O$3</f>
+        <f t="shared" si="76"/>
         <v>8847.048892048977</v>
       </c>
       <c r="P267">
-        <f>I263*P$2+P$3</f>
+        <f t="shared" si="77"/>
         <v>102.87289518094182</v>
       </c>
     </row>
@@ -19145,19 +19264,19 @@
         <v>521.4</v>
       </c>
       <c r="M268">
-        <f>B264*M$2+M$3</f>
+        <f t="shared" si="74"/>
         <v>2641.2458915253869</v>
       </c>
       <c r="N268">
-        <f>E264*N$2+N$3</f>
+        <f t="shared" si="75"/>
         <v>6382.6271091023009</v>
       </c>
       <c r="O268">
-        <f>F264*O$2+O$3</f>
+        <f t="shared" si="76"/>
         <v>9139.0681387110671</v>
       </c>
       <c r="P268">
-        <f>I264*P$2+P$3</f>
+        <f t="shared" si="77"/>
         <v>102.50339973656082</v>
       </c>
     </row>
@@ -19193,19 +19312,19 @@
         <v>523.70000000000005</v>
       </c>
       <c r="M269">
-        <f>B265*M$2+M$3</f>
+        <f t="shared" si="74"/>
         <v>2684.6801555389302</v>
       </c>
       <c r="N269">
-        <f>E265*N$2+N$3</f>
+        <f t="shared" si="75"/>
         <v>6991.9427375026098</v>
       </c>
       <c r="O269">
-        <f>F265*O$2+O$3</f>
+        <f t="shared" si="76"/>
         <v>9357.9273853731611</v>
       </c>
       <c r="P269">
-        <f>I265*P$2+P$3</f>
+        <f t="shared" si="77"/>
         <v>103.3949042921798</v>
       </c>
     </row>
@@ -19241,19 +19360,19 @@
         <v>526</v>
       </c>
       <c r="M270">
-        <f>B266*M$2+M$3</f>
+        <f t="shared" si="74"/>
         <v>2631.209119552474</v>
       </c>
       <c r="N270">
-        <f>E266*N$2+N$3</f>
+        <f t="shared" si="75"/>
         <v>6102.0483659029196</v>
       </c>
       <c r="O270">
-        <f>F266*O$2+O$3</f>
+        <f t="shared" si="76"/>
         <v>9609.2946320352476</v>
       </c>
       <c r="P270">
-        <f>I266*P$2+P$3</f>
+        <f t="shared" si="77"/>
         <v>102.72040884779879</v>
       </c>
     </row>
@@ -19289,19 +19408,19 @@
         <v>528.29999999999995</v>
       </c>
       <c r="M271">
-        <f>B267*M$2+M$3</f>
+        <f t="shared" si="74"/>
         <v>2681.2331835660175</v>
       </c>
       <c r="N271">
-        <f>E267*N$2+N$3</f>
+        <f t="shared" si="75"/>
         <v>7183.1239943032215</v>
       </c>
       <c r="O271">
-        <f>F267*O$2+O$3</f>
+        <f t="shared" si="76"/>
         <v>9899.1218786973404</v>
       </c>
       <c r="P271">
-        <f>I267*P$2+P$3</f>
+        <f t="shared" si="77"/>
         <v>102.75891340341781</v>
       </c>
     </row>
@@ -19337,19 +19456,19 @@
         <v>530.6</v>
       </c>
       <c r="M272">
-        <f>B268*M$2+M$3</f>
+        <f t="shared" si="74"/>
         <v>2651.0978475795609</v>
       </c>
       <c r="N272">
-        <f>E268*N$2+N$3</f>
+        <f t="shared" si="75"/>
         <v>7059.5796227035298</v>
       </c>
       <c r="O272">
-        <f>F268*O$2+O$3</f>
+        <f t="shared" si="76"/>
         <v>10356.661125359431</v>
       </c>
       <c r="P272">
-        <f>I268*P$2+P$3</f>
+        <f t="shared" si="77"/>
         <v>103.24341795903679</v>
       </c>
     </row>
@@ -19385,19 +19504,19 @@
         <v>533</v>
       </c>
       <c r="M273">
-        <f>B269*M$2+M$3</f>
+        <f t="shared" si="74"/>
         <v>2661.0890795936934</v>
       </c>
       <c r="N273">
-        <f>E269*N$2+N$3</f>
+        <f t="shared" si="75"/>
         <v>7544.84114799081</v>
       </c>
       <c r="O273">
-        <f>F269*O$2+O$3</f>
+        <f t="shared" si="76"/>
         <v>10639.930600137264</v>
       </c>
       <c r="P273">
-        <f>I269*P$2+P$3</f>
+        <f t="shared" si="77"/>
         <v>102.83537923446531</v>
       </c>
     </row>
@@ -19433,19 +19552,19 @@
         <v>534.9</v>
       </c>
       <c r="M274">
-        <f>B270*M$2+M$3</f>
+        <f t="shared" si="74"/>
         <v>2624.6183716048818</v>
       </c>
       <c r="N274">
-        <f>E270*N$2+N$3</f>
+        <f t="shared" si="75"/>
         <v>7500.1331888432305</v>
       </c>
       <c r="O274">
-        <f>F270*O$2+O$3</f>
+        <f t="shared" si="76"/>
         <v>11209.500934336384</v>
       </c>
       <c r="P274">
-        <f>I270*P$2+P$3</f>
+        <f t="shared" si="77"/>
         <v>103.4620569108462</v>
       </c>
     </row>
@@ -19481,19 +19600,19 @@
         <v>537.20000000000005</v>
       </c>
       <c r="M275">
-        <f>B271*M$2+M$3</f>
+        <f t="shared" si="74"/>
         <v>2693.3025356184253</v>
       </c>
       <c r="N275">
-        <f>E271*N$2+N$3</f>
+        <f t="shared" si="75"/>
         <v>7326.0288172435394</v>
       </c>
       <c r="O275">
-        <f>F271*O$2+O$3</f>
+        <f t="shared" si="76"/>
         <v>11409.564180998477</v>
       </c>
       <c r="P275">
-        <f>I271*P$2+P$3</f>
+        <f t="shared" si="77"/>
         <v>102.93956146646519</v>
       </c>
     </row>
@@ -19529,19 +19648,19 @@
         <v>539.6</v>
       </c>
       <c r="M276">
-        <f>B272*M$2+M$3</f>
+        <f t="shared" si="74"/>
         <v>2634.0699676325576</v>
       </c>
       <c r="N276">
-        <f>E272*N$2+N$3</f>
+        <f t="shared" si="75"/>
         <v>7764.5503425308198</v>
       </c>
       <c r="O276">
-        <f>F272*O$2+O$3</f>
+        <f t="shared" si="76"/>
         <v>12024.945655776311</v>
       </c>
       <c r="P276">
-        <f>I272*P$2+P$3</f>
+        <f t="shared" si="77"/>
         <v>102.55752274189372</v>
       </c>
     </row>
@@ -19577,19 +19696,19 @@
         <v>541.9</v>
       </c>
       <c r="M277">
-        <f>B273*M$2+M$3</f>
+        <f t="shared" si="74"/>
         <v>2702.1339316461008</v>
       </c>
       <c r="N277">
-        <f>E273*N$2+N$3</f>
+        <f t="shared" si="75"/>
         <v>8387.4959709311206</v>
       </c>
       <c r="O277">
-        <f>F273*O$2+O$3</f>
+        <f t="shared" si="76"/>
         <v>12603.5369024384</v>
       </c>
       <c r="P277">
-        <f>I273*P$2+P$3</f>
+        <f t="shared" si="77"/>
         <v>102.9520272975127</v>
       </c>
     </row>
@@ -19625,19 +19744,19 @@
         <v>544.20000000000005</v>
       </c>
       <c r="M278">
-        <f>B274*M$2+M$3</f>
+        <f t="shared" si="74"/>
         <v>2661.9889956596448</v>
       </c>
       <c r="N278">
-        <f>E274*N$2+N$3</f>
+        <f t="shared" si="75"/>
         <v>8373.1015993314304</v>
       </c>
       <c r="O278">
-        <f>F274*O$2+O$3</f>
+        <f t="shared" si="76"/>
         <v>13083.852149100492</v>
       </c>
       <c r="P278">
-        <f>I274*P$2+P$3</f>
+        <f t="shared" si="77"/>
         <v>103.02953185313169</v>
       </c>
     </row>
@@ -19673,19 +19792,19 @@
         <v>546.5</v>
       </c>
       <c r="M279">
-        <f>B275*M$2+M$3</f>
+        <f t="shared" si="74"/>
         <v>2705.4856596731884</v>
       </c>
       <c r="N279">
-        <f>E275*N$2+N$3</f>
+        <f t="shared" si="75"/>
         <v>8987.1272277317294</v>
       </c>
       <c r="O279">
-        <f>F275*O$2+O$3</f>
+        <f t="shared" si="76"/>
         <v>13528.195395762585</v>
       </c>
       <c r="P279">
-        <f>I275*P$2+P$3</f>
+        <f t="shared" si="77"/>
         <v>102.36703640875068</v>
       </c>
     </row>
@@ -19721,19 +19840,19 @@
         <v>548.79999999999995</v>
       </c>
       <c r="M280">
-        <f>B276*M$2+M$3</f>
+        <f t="shared" si="74"/>
         <v>2666.4692236867318</v>
       </c>
       <c r="N280">
-        <f>E276*N$2+N$3</f>
+        <f t="shared" si="75"/>
         <v>8731.3828561320406</v>
       </c>
       <c r="O280">
-        <f>F276*O$2+O$3</f>
+        <f t="shared" si="76"/>
         <v>13664.778642424675</v>
       </c>
       <c r="P280">
-        <f>I276*P$2+P$3</f>
+        <f t="shared" si="77"/>
         <v>103.33554096436966</v>
       </c>
     </row>
@@ -19769,19 +19888,19 @@
         <v>551.1</v>
       </c>
       <c r="M281">
-        <f>B277*M$2+M$3</f>
+        <f t="shared" si="74"/>
         <v>2659.8873877002752</v>
       </c>
       <c r="N281">
-        <f>E277*N$2+N$3</f>
+        <f t="shared" si="75"/>
         <v>9089.4084845323396</v>
       </c>
       <c r="O281">
-        <f>F277*O$2+O$3</f>
+        <f t="shared" si="76"/>
         <v>13951.601889086767</v>
       </c>
       <c r="P281">
-        <f>I277*P$2+P$3</f>
+        <f t="shared" si="77"/>
         <v>103.60304551998865</v>
       </c>
     </row>
@@ -19817,19 +19936,19 @@
         <v>553.4</v>
       </c>
       <c r="M282">
-        <f>B278*M$2+M$3</f>
+        <f t="shared" si="74"/>
         <v>2663.5342517138188</v>
       </c>
       <c r="N282">
-        <f>E278*N$2+N$3</f>
+        <f t="shared" si="75"/>
         <v>9315.9841129326487</v>
       </c>
       <c r="O282">
-        <f>F278*O$2+O$3</f>
+        <f t="shared" si="76"/>
         <v>14180.093135748861</v>
       </c>
       <c r="P282">
-        <f>I278*P$2+P$3</f>
+        <f t="shared" si="77"/>
         <v>102.41855007560766</v>
       </c>
     </row>
@@ -19865,19 +19984,19 @@
         <v>555.4</v>
       </c>
       <c r="M283">
-        <f>B279*M$2+M$3</f>
+        <f t="shared" si="74"/>
         <v>2701.584811725596</v>
       </c>
       <c r="N283">
-        <f>E279*N$2+N$3</f>
+        <f t="shared" si="75"/>
         <v>9523.2120506720494</v>
       </c>
       <c r="O283">
-        <f>F279*O$2+O$3</f>
+        <f t="shared" si="76"/>
         <v>14651.705698063721</v>
       </c>
       <c r="P283">
-        <f>I279*P$2+P$3</f>
+        <f t="shared" si="77"/>
         <v>103.15968447179807</v>
       </c>
     </row>
@@ -19913,19 +20032,19 @@
         <v>557.70000000000005</v>
       </c>
       <c r="M284">
-        <f>B280*M$2+M$3</f>
+        <f t="shared" si="74"/>
         <v>2668.0819757391391</v>
       </c>
       <c r="N284">
-        <f>E280*N$2+N$3</f>
+        <f t="shared" si="75"/>
         <v>9469.7176790723606</v>
       </c>
       <c r="O284">
-        <f>F280*O$2+O$3</f>
+        <f t="shared" si="76"/>
         <v>14885.188944725807</v>
       </c>
       <c r="P284">
-        <f>I280*P$2+P$3</f>
+        <f t="shared" si="77"/>
         <v>103.32518902741708</v>
       </c>
     </row>
@@ -19961,19 +20080,19 @@
         <v>560</v>
       </c>
       <c r="M285">
-        <f>B281*M$2+M$3</f>
+        <f t="shared" si="74"/>
         <v>2688.0645397526832</v>
       </c>
       <c r="N285">
-        <f>E281*N$2+N$3</f>
+        <f t="shared" si="75"/>
         <v>9764.8233074726595</v>
       </c>
       <c r="O285">
-        <f>F281*O$2+O$3</f>
+        <f t="shared" si="76"/>
         <v>15736.388191387899</v>
       </c>
       <c r="P285">
-        <f>I281*P$2+P$3</f>
+        <f t="shared" si="77"/>
         <v>103.52969358303605</v>
       </c>
     </row>
@@ -20009,19 +20128,19 @@
         <v>562.29999999999995</v>
       </c>
       <c r="M286">
-        <f>B282*M$2+M$3</f>
+        <f t="shared" si="74"/>
         <v>2636.9727037662265</v>
       </c>
       <c r="N286">
-        <f>E282*N$2+N$3</f>
+        <f t="shared" si="75"/>
         <v>10019.55893587297</v>
       </c>
       <c r="O286">
-        <f>F282*O$2+O$3</f>
+        <f t="shared" si="76"/>
         <v>16351.503438049993</v>
       </c>
       <c r="P286">
-        <f>I282*P$2+P$3</f>
+        <f t="shared" si="77"/>
         <v>102.60019813865506</v>
       </c>
     </row>
@@ -20057,19 +20176,19 @@
         <v>566.9</v>
       </c>
       <c r="M287">
-        <f>B284*M$2+M$3</f>
+        <f t="shared" ref="M287:M303" si="78">B284*M$2+M$3</f>
         <v>2659.3246317933135</v>
       </c>
       <c r="N287">
-        <f>E284*N$2+N$3</f>
+        <f t="shared" ref="N287:N303" si="79">E284*N$2+N$3</f>
         <v>10737.000192673579</v>
       </c>
       <c r="O287">
-        <f>F284*O$2+O$3</f>
+        <f t="shared" ref="O287:O303" si="80">F284*O$2+O$3</f>
         <v>20866.977931374175</v>
       </c>
       <c r="P287">
-        <f>I284*P$2+P$3</f>
+        <f t="shared" ref="P287:P303" si="81">I284*P$2+P$3</f>
         <v>103.49220724989303</v>
       </c>
     </row>
@@ -20105,19 +20224,19 @@
         <v>569.29999999999995</v>
       </c>
       <c r="M288">
-        <f>B285*M$2+M$3</f>
+        <f t="shared" si="78"/>
         <v>2743.5299638074457</v>
       </c>
       <c r="N288">
-        <f>E285*N$2+N$3</f>
+        <f t="shared" si="79"/>
         <v>13291.051717960861</v>
       </c>
       <c r="O288">
-        <f>F285*O$2+O$3</f>
+        <f t="shared" si="80"/>
         <v>25051.319406152004</v>
       </c>
       <c r="P288">
-        <f>I285*P$2+P$3</f>
+        <f t="shared" si="81"/>
         <v>102.35816852532156</v>
       </c>
     </row>
@@ -20153,19 +20272,19 @@
         <v>571.6</v>
       </c>
       <c r="M289">
-        <f>B286*M$2+M$3</f>
+        <f t="shared" si="78"/>
         <v>2748.2008278209896</v>
       </c>
       <c r="N289">
-        <f>E286*N$2+N$3</f>
+        <f t="shared" si="79"/>
         <v>12200.427346361172</v>
       </c>
       <c r="O289">
-        <f>F286*O$2+O$3</f>
+        <f t="shared" si="80"/>
         <v>21065.622652814098</v>
       </c>
       <c r="P289">
-        <f>I286*P$2+P$3</f>
+        <f t="shared" si="81"/>
         <v>102.75267308094054</v>
       </c>
     </row>
@@ -20201,19 +20320,19 @@
         <v>573.9</v>
       </c>
       <c r="M290">
-        <f>B287*M$2+M$3</f>
+        <f t="shared" si="78"/>
         <v>2715.0799918345328</v>
       </c>
       <c r="N290">
-        <f>E287*N$2+N$3</f>
+        <f t="shared" si="79"/>
         <v>9607.6729747614809</v>
       </c>
       <c r="O290">
-        <f>F287*O$2+O$3</f>
+        <f t="shared" si="80"/>
         <v>14577.469899476191</v>
       </c>
       <c r="P290">
-        <f>I287*P$2+P$3</f>
+        <f t="shared" si="81"/>
         <v>103.36417763655952</v>
       </c>
     </row>
@@ -20249,19 +20368,19 @@
         <v>576.20000000000005</v>
       </c>
       <c r="M291">
-        <f>B288*M$2+M$3</f>
+        <f t="shared" si="78"/>
         <v>2705.3599558480769</v>
       </c>
       <c r="N291">
-        <f>E288*N$2+N$3</f>
+        <f t="shared" si="79"/>
         <v>7669.948603161778</v>
       </c>
       <c r="O291">
-        <f>F288*O$2+O$3</f>
+        <f t="shared" si="80"/>
         <v>9890.453146138283</v>
       </c>
       <c r="P291">
-        <f>I288*P$2+P$3</f>
+        <f t="shared" si="81"/>
         <v>101.96368219217851</v>
       </c>
     </row>
@@ -20297,19 +20416,19 @@
         <v>578.5</v>
       </c>
       <c r="M292">
-        <f>B289*M$2+M$3</f>
+        <f t="shared" si="78"/>
         <v>2650.8203198616202</v>
       </c>
       <c r="N292">
-        <f>E289*N$2+N$3</f>
+        <f t="shared" si="79"/>
         <v>7169.534231562091</v>
       </c>
       <c r="O292">
-        <f>F289*O$2+O$3</f>
+        <f t="shared" si="80"/>
         <v>8914.8363928003746</v>
       </c>
       <c r="P292">
-        <f>I289*P$2+P$3</f>
+        <f t="shared" si="81"/>
         <v>102.37118674779751</v>
       </c>
     </row>
@@ -20345,19 +20464,19 @@
         <v>580.79999999999995</v>
       </c>
       <c r="M293">
-        <f>B290*M$2+M$3</f>
+        <f t="shared" si="78"/>
         <v>2683.4272838751635</v>
       </c>
       <c r="N293">
-        <f>E290*N$2+N$3</f>
+        <f t="shared" si="79"/>
         <v>7031.599859962389</v>
       </c>
       <c r="O293">
-        <f>F290*O$2+O$3</f>
+        <f t="shared" si="80"/>
         <v>8316.6796394624653</v>
       </c>
       <c r="P293">
-        <f>I290*P$2+P$3</f>
+        <f t="shared" si="81"/>
         <v>101.96469130341652</v>
       </c>
     </row>
@@ -20393,19 +20512,19 @@
         <v>582.79999999999995</v>
       </c>
       <c r="M294">
-        <f>B291*M$2+M$3</f>
+        <f t="shared" si="78"/>
         <v>2655.1935438869409</v>
       </c>
       <c r="N294">
-        <f>E291*N$2+N$3</f>
+        <f t="shared" si="79"/>
         <v>6298.4977977017916</v>
       </c>
       <c r="O294">
-        <f>F291*O$2+O$3</f>
+        <f t="shared" si="80"/>
         <v>7915.5922017773255</v>
       </c>
       <c r="P294">
-        <f>I291*P$2+P$3</f>
+        <f t="shared" si="81"/>
         <v>101.34182569960693</v>
       </c>
     </row>
@@ -20441,19 +20560,19 @@
         <v>585.1</v>
       </c>
       <c r="M295">
-        <f>B292*M$2+M$3</f>
+        <f t="shared" si="78"/>
         <v>2659.6606079004841</v>
       </c>
       <c r="N295">
-        <f>E292*N$2+N$3</f>
+        <f t="shared" si="79"/>
         <v>6858.6434261021004</v>
       </c>
       <c r="O295">
-        <f>F292*O$2+O$3</f>
+        <f t="shared" si="80"/>
         <v>7615.5714484394184</v>
       </c>
       <c r="P295">
-        <f>I292*P$2+P$3</f>
+        <f t="shared" si="81"/>
         <v>101.95333025522591</v>
       </c>
     </row>
@@ -20489,19 +20608,19 @@
         <v>587.4</v>
       </c>
       <c r="M296">
-        <f>B293*M$2+M$3</f>
+        <f t="shared" si="78"/>
         <v>2657.181271914028</v>
       </c>
       <c r="N296">
-        <f>E293*N$2+N$3</f>
+        <f t="shared" si="79"/>
         <v>6566.7290545024007</v>
       </c>
       <c r="O296">
-        <f>F293*O$2+O$3</f>
+        <f t="shared" si="80"/>
         <v>7547.8106951015097</v>
       </c>
       <c r="P296">
-        <f>I293*P$2+P$3</f>
+        <f t="shared" si="81"/>
         <v>102.0558348108449</v>
       </c>
     </row>
@@ -20537,19 +20656,19 @@
         <v>589.70000000000005</v>
       </c>
       <c r="M297">
-        <f>B294*M$2+M$3</f>
+        <f t="shared" si="78"/>
         <v>2694.8738359275712</v>
       </c>
       <c r="N297">
-        <f>E294*N$2+N$3</f>
+        <f t="shared" si="79"/>
         <v>6276.4646829027115</v>
       </c>
       <c r="O297">
-        <f>F294*O$2+O$3</f>
+        <f t="shared" si="80"/>
         <v>7519.1779417635998</v>
       </c>
       <c r="P297">
-        <f>I294*P$2+P$3</f>
+        <f t="shared" si="81"/>
         <v>102.4633393664639</v>
       </c>
     </row>
@@ -20585,19 +20704,19 @@
         <v>592</v>
       </c>
       <c r="M298">
-        <f>B295*M$2+M$3</f>
+        <f t="shared" si="78"/>
         <v>2643.2393999411152</v>
       </c>
       <c r="N298">
-        <f>E295*N$2+N$3</f>
+        <f t="shared" si="79"/>
         <v>6475.4103113030196</v>
       </c>
       <c r="O298">
-        <f>F295*O$2+O$3</f>
+        <f t="shared" si="80"/>
         <v>7480.3011884256912</v>
       </c>
       <c r="P298">
-        <f>I295*P$2+P$3</f>
+        <f t="shared" si="81"/>
         <v>102.1838439220829</v>
       </c>
     </row>
@@ -20633,19 +20752,19 @@
         <v>594.29999999999995</v>
       </c>
       <c r="M299">
-        <f>B296*M$2+M$3</f>
+        <f t="shared" si="78"/>
         <v>2675.9877639546585</v>
       </c>
       <c r="N299">
-        <f>E296*N$2+N$3</f>
+        <f t="shared" si="79"/>
         <v>6055.2359397033215</v>
       </c>
       <c r="O299">
-        <f>F296*O$2+O$3</f>
+        <f t="shared" si="80"/>
         <v>7386.7644350877827</v>
       </c>
       <c r="P299">
-        <f>I296*P$2+P$3</f>
+        <f t="shared" si="81"/>
         <v>101.81434847770188</v>
       </c>
     </row>
@@ -20681,19 +20800,19 @@
         <v>596.5</v>
       </c>
       <c r="M300">
-        <f>B297*M$2+M$3</f>
+        <f t="shared" si="78"/>
         <v>2606.7243599676135</v>
       </c>
       <c r="N300">
-        <f>E297*N$2+N$3</f>
+        <f t="shared" si="79"/>
         <v>4329.7056712166595</v>
       </c>
       <c r="O300">
-        <f>F297*O$2+O$3</f>
+        <f t="shared" si="80"/>
         <v>7192.3894536341313</v>
       </c>
       <c r="P300">
-        <f>I297*P$2+P$3</f>
+        <f t="shared" si="81"/>
         <v>101.36939631351136</v>
       </c>
     </row>
@@ -20729,19 +20848,19 @@
         <v>598.5</v>
       </c>
       <c r="M301">
-        <f>B298*M$2+M$3</f>
+        <f t="shared" si="78"/>
         <v>2596.5841199793904</v>
       </c>
       <c r="N301">
-        <f>E298*N$2+N$3</f>
+        <f t="shared" si="79"/>
         <v>3746.253608956049</v>
       </c>
       <c r="O301">
-        <f>F298*O$2+O$3</f>
+        <f t="shared" si="80"/>
         <v>7091.6780159489945</v>
       </c>
       <c r="P301">
-        <f>I298*P$2+P$3</f>
+        <f t="shared" si="81"/>
         <v>102.63253070970178</v>
       </c>
     </row>
@@ -20750,19 +20869,19 @@
         <v>600.20000000000005</v>
       </c>
       <c r="M302">
-        <f>B299*M$2+M$3</f>
+        <f t="shared" si="78"/>
         <v>2541.0358759894007</v>
       </c>
       <c r="N302">
-        <f>E299*N$2+N$3</f>
+        <f t="shared" si="79"/>
         <v>2809.1038560345405</v>
       </c>
       <c r="O302">
-        <f>F299*O$2+O$3</f>
+        <f t="shared" si="80"/>
         <v>6952.5638939166247</v>
       </c>
       <c r="P302">
-        <f>I299*P$2+P$3</f>
+        <f t="shared" si="81"/>
         <v>101.50229494646365</v>
       </c>
     </row>
@@ -20771,19 +20890,19 @@
         <v>601.4</v>
       </c>
       <c r="M303">
-        <f>B300*M$2+M$3</f>
+        <f t="shared" si="78"/>
         <v>2561.792191996467</v>
       </c>
       <c r="N303">
-        <f>E300*N$2+N$3</f>
+        <f t="shared" si="79"/>
         <v>2422.4246186781838</v>
       </c>
       <c r="O303">
-        <f>F300*O$2+O$3</f>
+        <f t="shared" si="80"/>
         <v>6213.3986313055411</v>
       </c>
       <c r="P303">
-        <f>I300*P$2+P$3</f>
+        <f t="shared" si="81"/>
         <v>100.5657755841779</v>
       </c>
     </row>

--- a/HOAc work/Ni(110)/IRAS chamber/HOAc results on Ni and SnNi in IRAS chamber/TPD of HOAc on SnNi/TPD SnNi HOAc/TPD Plot HOAc_2e-9_30s_SnNi .xlsx
+++ b/HOAc work/Ni(110)/IRAS chamber/HOAc results on Ni and SnNi in IRAS chamber/TPD of HOAc on SnNi/TPD SnNi HOAc/TPD Plot HOAc_2e-9_30s_SnNi .xlsx
@@ -6491,7 +6491,7 @@
                     <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
                     <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
                   </a:rPr>
-                  <a:t>QMS signal (a.u.) </a:t>
+                  <a:t>QMS Intensity (a.u.) </a:t>
                 </a:r>
                 <a:r>
                   <a:rPr lang="en-US" sz="1600" b="0" i="0" baseline="0">
@@ -7751,6 +7751,50 @@
       </cdr:txBody>
     </cdr:sp>
   </cdr:relSizeAnchor>
+  <cdr:relSizeAnchor xmlns:cdr="http://schemas.openxmlformats.org/drawingml/2006/chartDrawing">
+    <cdr:from>
+      <cdr:x>0.1125</cdr:x>
+      <cdr:y>0.03818</cdr:y>
+    </cdr:from>
+    <cdr:to>
+      <cdr:x>0.2375</cdr:x>
+      <cdr:y>0.23818</cdr:y>
+    </cdr:to>
+    <cdr:sp macro="" textlink="">
+      <cdr:nvSpPr>
+        <cdr:cNvPr id="6" name="TextBox 5">
+          <a:extLst xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EBDA9ED4-AA05-47EB-A84D-64024F8753B3}"/>
+            </a:ext>
+          </a:extLst>
+        </cdr:cNvPr>
+        <cdr:cNvSpPr txBox="1"/>
+      </cdr:nvSpPr>
+      <cdr:spPr>
+        <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:off x="822960" y="174568"/>
+          <a:ext cx="914400" cy="914400"/>
+        </a:xfrm>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </cdr:spPr>
+      <cdr:txBody>
+        <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" vertOverflow="clip" wrap="none" rtlCol="0"/>
+        <a:lstStyle xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
+        <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:r>
+            <a:rPr lang="en-US" sz="1600">
+              <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+              <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+            </a:rPr>
+            <a:t>TPD</a:t>
+          </a:r>
+        </a:p>
+      </cdr:txBody>
+    </cdr:sp>
+  </cdr:relSizeAnchor>
 </c:userShapes>
 </file>
 
@@ -8077,8 +8121,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:P306"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="L15" sqref="L15"/>
+    <sheetView tabSelected="1" topLeftCell="B4" workbookViewId="0">
+      <selection activeCell="O13" sqref="O13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.05" x14ac:dyDescent="0.3"/>
@@ -19168,19 +19212,19 @@
         <v>516.79999999999995</v>
       </c>
       <c r="M266">
-        <f t="shared" ref="M266:M297" si="74">B262*M$2+M$3</f>
+        <f t="shared" ref="M266:M286" si="74">B262*M$2+M$3</f>
         <v>2643.1123634982996</v>
       </c>
       <c r="N266">
-        <f t="shared" ref="N266:N297" si="75">E262*N$2+N$3</f>
+        <f t="shared" ref="N266:N286" si="75">E262*N$2+N$3</f>
         <v>6090.7058523016894</v>
       </c>
       <c r="O266">
-        <f t="shared" ref="O266:O297" si="76">F262*O$2+O$3</f>
+        <f t="shared" ref="O266:O286" si="76">F262*O$2+O$3</f>
         <v>8760.6496453868858</v>
       </c>
       <c r="P266">
-        <f t="shared" ref="P266:P297" si="77">I262*P$2+P$3</f>
+        <f t="shared" ref="P266:P286" si="77">I262*P$2+P$3</f>
         <v>102.55439062532282</v>
       </c>
     </row>
